--- a/params.xlsx
+++ b/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elemental\vindenatt.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450BC60F-88BA-4368-BABC-AC51F41087F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84D91DB-A3F8-4B23-A095-E51FE7030DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{785EF7B0-BCEA-4ABB-8F17-D9A2C5203060}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -682,6 +682,7 @@
       <c r="C8">
         <v>6</v>
       </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -693,6 +694,7 @@
       <c r="C9">
         <v>7</v>
       </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -704,6 +706,7 @@
       <c r="C10">
         <v>8</v>
       </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
@@ -715,6 +718,7 @@
       <c r="C11">
         <v>9</v>
       </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -726,6 +730,7 @@
       <c r="C12">
         <v>10</v>
       </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>

--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elemental\vindenatt.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84D91DB-A3F8-4B23-A095-E51FE7030DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB370DA-8012-44E8-8240-CC7FFA35D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{785EF7B0-BCEA-4ABB-8F17-D9A2C5203060}"/>
+    <workbookView xWindow="1770" yWindow="870" windowWidth="22230" windowHeight="14730" xr2:uid="{785EF7B0-BCEA-4ABB-8F17-D9A2C5203060}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>color</t>
     <phoneticPr fontId="2"/>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>gentime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>desc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -244,8 +248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CEC915FC-F514-481C-AAA2-7B8D67F7C1D1}" name="テーブル2" displayName="テーブル2" ref="A1:D12" totalsRowShown="0">
-  <autoFilter ref="A1:D12" xr:uid="{CEC915FC-F514-481C-AAA2-7B8D67F7C1D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CEC915FC-F514-481C-AAA2-7B8D67F7C1D1}" name="テーブル2" displayName="テーブル2" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{CEC915FC-F514-481C-AAA2-7B8D67F7C1D1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
     <sortCondition ref="C1:C12"/>
   </sortState>
@@ -575,7 +579,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -733,7 +737,12 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/params.xlsx
+++ b/params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elemental\vindenatt.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB370DA-8012-44E8-8240-CC7FFA35D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E32756D-91DD-401D-BD19-EADA3CEA7C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="870" windowWidth="22230" windowHeight="14730" xr2:uid="{785EF7B0-BCEA-4ABB-8F17-D9A2C5203060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{785EF7B0-BCEA-4ABB-8F17-D9A2C5203060}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>color</t>
     <phoneticPr fontId="2"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>mark</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -153,6 +149,14 @@
   </si>
   <si>
     <t>desc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pantheon value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -579,7 +583,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -592,16 +596,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -609,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -621,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -630,22 +634,22 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -654,10 +658,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -666,10 +670,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -678,10 +682,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -690,10 +694,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -702,10 +706,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -714,10 +718,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -726,10 +730,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -738,11 +742,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -771,24 +776,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -797,10 +802,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -809,10 +814,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2</v>
